--- a/data/trans_orig/PER_ESCASEZ_VERDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_ESCASEZ_VERDE-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en País Vasco</t>
+          <t>Percepción de la escasez de zonas verdes en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4436,7 +4436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en Andalucia</t>
+          <t>Percepción de la escasez de zonas verdes en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8327,7 +8327,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la escasez de zonas verdes en C.Valenciana</t>
+          <t>Percepción de la escasez de zonas verdes en C.Valenciana (tasa de respuesta: 93,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_ESCASEZ_VERDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_ESCASEZ_VERDE-Edad-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>56224</t>
+          <t>58192</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>53363</t>
+          <t>55232</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58409</t>
+          <t>60733</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>87,02%</t>
+          <t>86,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>81,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>55661</t>
+          <t>59618</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>53358</t>
+          <t>56670</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57709</t>
+          <t>62004</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>87,25%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>84,43%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>111886</t>
+          <t>117810</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>108288</t>
+          <t>114061</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>114977</t>
+          <t>121458</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>86,64%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>83,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>89,96%</t>
+          <t>89,32%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4360</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6797</t>
+          <t>7721</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1458</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3974</t>
+          <t>6860</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>9337</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>6686</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>9400</t>
+          <t>12628</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>2785</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5990</t>
+          <t>6590</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4994</t>
+          <t>4497</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7263</t>
+          <t>6739</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>9019</t>
+          <t>8837</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>6728</t>
+          <t>6489</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>11734</t>
+          <t>11788</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>8,67%</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61314</t>
+          <t>78375</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>58199</t>
+          <t>75006</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>63682</t>
+          <t>81593</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>85,29%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>80,96%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,59%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>58541</t>
+          <t>77107</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>55898</t>
+          <t>73330</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>60517</t>
+          <t>80312</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>88,34%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>89,74%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>119854</t>
+          <t>155482</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>116182</t>
+          <t>150288</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>123175</t>
+          <t>160143</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>84,1%</t>
+          <t>83,12%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>88,57%</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5691</t>
+          <t>7071</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3869</t>
+          <t>4839</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8056</t>
+          <t>9994</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3437</t>
+          <t>5498</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5242</t>
+          <t>8234</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>9128</t>
+          <t>12569</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6695</t>
+          <t>9048</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>12117</t>
+          <t>16640</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4880</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7294</t>
+          <t>8570</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4286</t>
+          <t>6888</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6401</t>
+          <t>10047</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9167</t>
+          <t>12768</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7006</t>
+          <t>9544</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>12197</t>
+          <t>17030</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>9,42%</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1647,32 +1647,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81924</t>
+          <t>106488</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>78492</t>
+          <t>102158</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>85269</t>
+          <t>110336</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>80,43%</t>
+          <t>80,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,32 +1682,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>85611</t>
+          <t>107299</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>81939</t>
+          <t>103161</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>88606</t>
+          <t>111081</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>84,69%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>88,49%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,32 +1717,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>167535</t>
+          <t>213786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>162272</t>
+          <t>207556</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>171759</t>
+          <t>218953</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>84,45%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>82,07%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>86,5%</t>
         </is>
       </c>
     </row>
@@ -1760,32 +1760,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8535</t>
+          <t>10858</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6149</t>
+          <t>7931</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11345</t>
+          <t>14179</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1795,32 +1795,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8523</t>
+          <t>10866</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6260</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11582</t>
+          <t>14260</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1830,32 +1830,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>17058</t>
+          <t>21724</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>13830</t>
+          <t>17239</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>21342</t>
+          <t>26492</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,47%</t>
         </is>
       </c>
     </row>
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7127</t>
+          <t>9097</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>6753</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10013</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>8530</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>6169</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8739</t>
+          <t>12168</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>13130</t>
+          <t>17627</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>10308</t>
+          <t>14139</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>16952</t>
+          <t>22164</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
@@ -1986,17 +1986,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,17 +2056,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,32 +2103,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>119138</t>
+          <t>127195</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>115331</t>
+          <t>123079</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>123015</t>
+          <t>130673</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>84,35%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>81,65%</t>
+          <t>83,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,32 +2138,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>119188</t>
+          <t>128490</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>114739</t>
+          <t>124385</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>122804</t>
+          <t>132075</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>84,88%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>81,71%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,32 +2173,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>238326</t>
+          <t>255686</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>233008</t>
+          <t>249510</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>243886</t>
+          <t>261074</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>83,67%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>87,55%</t>
         </is>
       </c>
     </row>
@@ -2216,102 +2216,102 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10597</t>
+          <t>11255</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7976</t>
+          <t>8596</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13652</t>
+          <t>14687</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>12600</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9785</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16303</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>23855</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>19689</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>28839</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
           <t>9,67%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>11817</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>9070</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>15224</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>8,42%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>6,46%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>10,84%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>22414</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>18506</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>27123</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="W17" s="2" t="inlineStr">
-        <is>
-          <t>9,63%</t>
         </is>
       </c>
     </row>
@@ -2329,32 +2329,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11514</t>
+          <t>9689</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8861</t>
+          <t>7363</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15029</t>
+          <t>12618</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2364,32 +2364,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9415</t>
+          <t>8984</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>6887</t>
+          <t>6519</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>12541</t>
+          <t>11688</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2399,32 +2399,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>20930</t>
+          <t>18674</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>17164</t>
+          <t>15298</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>25360</t>
+          <t>22401</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -2442,17 +2442,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2559,32 +2559,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>105860</t>
+          <t>107374</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>101083</t>
+          <t>103302</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>109443</t>
+          <t>111443</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>83,15%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>85,96%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2594,32 +2594,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>127230</t>
+          <t>118068</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>122944</t>
+          <t>114202</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>131116</t>
+          <t>121285</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>82,16%</t>
+          <t>81,71%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2629,32 +2629,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>233090</t>
+          <t>225443</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>227676</t>
+          <t>219940</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>238595</t>
+          <t>230750</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>84,16%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>85,52%</t>
         </is>
       </c>
     </row>
@@ -2672,32 +2672,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10598</t>
+          <t>12193</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7961</t>
+          <t>9488</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14300</t>
+          <t>15837</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2707,32 +2707,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10534</t>
+          <t>11911</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7977</t>
+          <t>9364</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>13388</t>
+          <t>15042</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2742,32 +2742,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>21132</t>
+          <t>24105</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>17497</t>
+          <t>20227</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>25376</t>
+          <t>28279</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -2785,32 +2785,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10859</t>
+          <t>10501</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8191</t>
+          <t>7716</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14363</t>
+          <t>13557</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2820,32 +2820,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>11868</t>
+          <t>9786</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9061</t>
+          <t>7502</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>15497</t>
+          <t>12386</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2855,32 +2855,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>22727</t>
+          <t>20288</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>18610</t>
+          <t>17117</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>27343</t>
+          <t>24180</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2933,17 +2933,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2968,17 +2968,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3015,32 +3015,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96252</t>
+          <t>82458</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>92026</t>
+          <t>79892</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>99229</t>
+          <t>84797</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>86,21%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>81,39%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3050,32 +3050,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>96621</t>
+          <t>92240</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>92629</t>
+          <t>88428</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>100161</t>
+          <t>95162</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>82,38%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>79,01%</t>
+          <t>78,97%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>84,99%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3085,32 +3085,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>192872</t>
+          <t>174699</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>187964</t>
+          <t>170243</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>198205</t>
+          <t>179075</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>84,14%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>86,25%</t>
         </is>
       </c>
     </row>
@@ -3128,32 +3128,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8565</t>
+          <t>6586</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6132</t>
+          <t>4704</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11904</t>
+          <t>8782</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3163,32 +3163,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10313</t>
+          <t>10009</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7896</t>
+          <t>7901</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>13727</t>
+          <t>12773</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3198,32 +3198,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>18878</t>
+          <t>16595</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>15701</t>
+          <t>13703</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>23387</t>
+          <t>19881</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -3241,32 +3241,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8247</t>
+          <t>6608</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6089</t>
+          <t>4999</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11221</t>
+          <t>8692</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3276,32 +3276,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>10307</t>
+          <t>9721</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>8017</t>
+          <t>7557</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>13485</t>
+          <t>12247</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3311,32 +3311,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>18553</t>
+          <t>16329</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>15418</t>
+          <t>13241</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>22450</t>
+          <t>19298</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -3354,17 +3354,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3389,17 +3389,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3471,32 +3471,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>81851</t>
+          <t>67028</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>78008</t>
+          <t>63926</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>85278</t>
+          <t>69466</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>79,51%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>86,4%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3506,32 +3506,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>112346</t>
+          <t>104937</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>108457</t>
+          <t>100799</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>116073</t>
+          <t>108245</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>83,26%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3541,32 +3541,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>194198</t>
+          <t>171966</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>189269</t>
+          <t>166960</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>199805</t>
+          <t>175979</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>83,3%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>85,25%</t>
         </is>
       </c>
     </row>
@@ -3584,32 +3584,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>10341</t>
+          <t>7970</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7628</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>13542</t>
+          <t>10638</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3619,32 +3619,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13630</t>
+          <t>14080</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>10754</t>
+          <t>11379</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>17041</t>
+          <t>17643</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3654,32 +3654,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>23972</t>
+          <t>22050</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>19631</t>
+          <t>18597</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>28286</t>
+          <t>26195</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5867</t>
+          <t>5405</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4045</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8164</t>
+          <t>7641</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3732,32 +3732,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>7362</t>
+          <t>7016</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5386</t>
+          <t>5007</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>10175</t>
+          <t>9492</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3767,32 +3767,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>13229</t>
+          <t>12420</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>10580</t>
+          <t>9904</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>16533</t>
+          <t>15553</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -3810,17 +3810,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3845,17 +3845,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3880,17 +3880,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3927,32 +3927,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>602564</t>
+          <t>627112</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>593729</t>
+          <t>618095</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>611033</t>
+          <t>636354</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>84,42%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>83,18%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>85,61%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3962,32 +3962,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>655199</t>
+          <t>687759</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>646607</t>
+          <t>678589</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>664204</t>
+          <t>696912</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>83,53%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3997,27 +3997,27 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>1257763</t>
+          <t>1314870</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1244430</t>
+          <t>1302241</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1269896</t>
+          <t>1328071</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
@@ -4040,32 +4040,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>58688</t>
+          <t>61056</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>52565</t>
+          <t>53995</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>66138</t>
+          <t>67793</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4075,32 +4075,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>60793</t>
+          <t>69178</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>53898</t>
+          <t>62337</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>68124</t>
+          <t>76303</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4110,32 +4110,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>119481</t>
+          <t>130234</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>110090</t>
+          <t>120265</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>130188</t>
+          <t>140379</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -4153,32 +4153,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>52520</t>
+          <t>51520</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>46587</t>
+          <t>45839</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>58992</t>
+          <t>58427</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4188,32 +4188,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>54235</t>
+          <t>55422</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>48223</t>
+          <t>48972</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>60847</t>
+          <t>61698</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4223,32 +4223,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>106755</t>
+          <t>106942</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>98450</t>
+          <t>98731</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>115837</t>
+          <t>116570</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -4266,17 +4266,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4301,17 +4301,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4336,17 +4336,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9103</t>
+          <t>10160</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39287</t>
+          <t>39942</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4646,12 +4646,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4666,12 +4666,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12966</t>
+          <t>12496</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39144</t>
+          <t>36998</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>29753</t>
+          <t>29503</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>69500</t>
+          <t>69704</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,57%</t>
         </is>
       </c>
     </row>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15370</t>
+          <t>15290</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48227</t>
+          <t>46572</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20353</t>
+          <t>19578</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50547</t>
+          <t>48141</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4794,12 +4794,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>43488</t>
+          <t>42396</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>84118</t>
+          <t>86214</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>20,5%</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>164526</t>
+          <t>160945</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>206224</t>
+          <t>203583</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4872,12 +4872,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,64%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>109135</t>
+          <t>110135</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>143503</t>
+          <t>143822</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>78,01%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>284317</t>
+          <t>283426</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>339098</t>
+          <t>340865</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>67,6%</t>
+          <t>67,39%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>81,04%</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12996</t>
+          <t>13397</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39874</t>
+          <t>41848</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5102,12 +5102,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17468</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>53132</t>
+          <t>52766</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5157,12 +5157,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>38770</t>
+          <t>35763</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>82944</t>
+          <t>79302</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5172,12 +5172,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>14,59%</t>
         </is>
       </c>
     </row>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34512</t>
+          <t>32216</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66827</t>
+          <t>66414</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5215,12 +5215,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5235,12 +5235,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38513</t>
+          <t>38727</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>204017</t>
+          <t>203244</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>64,92%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5270,12 +5270,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>87163</t>
+          <t>85255</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>285640</t>
+          <t>283616</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5285,12 +5285,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>52,17%</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>136411</t>
+          <t>136587</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>174484</t>
+          <t>175265</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>76,07%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>91161</t>
+          <t>91616</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>230770</t>
+          <t>231700</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>217818</t>
+          <t>222269</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>390342</t>
+          <t>388945</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>71,54%</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29023</t>
+          <t>29575</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>53336</t>
+          <t>54264</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5558,12 +5558,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31537</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>51557</t>
+          <t>51599</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5613,12 +5613,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>65395</t>
+          <t>66853</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>98768</t>
+          <t>97757</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,5%</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39320</t>
+          <t>38920</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>66947</t>
+          <t>65764</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>53210</t>
+          <t>52199</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78217</t>
+          <t>78354</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>97837</t>
+          <t>99166</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>135638</t>
+          <t>135412</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>21,47%</t>
         </is>
       </c>
     </row>
@@ -5769,12 +5769,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>199576</t>
+          <t>201122</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>233388</t>
+          <t>235055</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>75,43%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5804,12 +5804,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>201369</t>
+          <t>199714</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>228951</t>
+          <t>229224</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>62,18%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>71,28%</t>
+          <t>71,37%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>411348</t>
+          <t>410310</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>453705</t>
+          <t>453543</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>65,23%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>71,92%</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12947</t>
+          <t>11377</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66549</t>
+          <t>64065</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>40828</t>
+          <t>40877</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>63562</t>
+          <t>62773</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>38903</t>
+          <t>46109</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>122309</t>
+          <t>122112</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>11,84%</t>
         </is>
       </c>
     </row>
@@ -6112,12 +6112,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28793</t>
+          <t>30739</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>147115</t>
+          <t>149866</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6147,12 +6147,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>53662</t>
+          <t>53717</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>76331</t>
+          <t>77671</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6182,12 +6182,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>64996</t>
+          <t>71691</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>201532</t>
+          <t>203260</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>19,7%</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>420266</t>
+          <t>419533</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>586310</t>
+          <t>583179</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,01%</t>
+          <t>66,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>274488</t>
+          <t>273097</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>303009</t>
+          <t>303187</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>67,88%</t>
+          <t>67,54%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>74,93%</t>
+          <t>74,98%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>714359</t>
+          <t>712536</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>920014</t>
+          <t>912992</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>69,25%</t>
+          <t>69,08%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>88,51%</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26908</t>
+          <t>26697</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>49454</t>
+          <t>48669</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6470,12 +6470,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>33473</t>
+          <t>33075</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>51742</t>
+          <t>52290</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6505,12 +6505,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6525,12 +6525,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>65598</t>
+          <t>66916</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>94368</t>
+          <t>94866</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,33%</t>
         </is>
       </c>
     </row>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45973</t>
+          <t>45775</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>71429</t>
+          <t>71284</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6583,12 +6583,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>50383</t>
+          <t>49290</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>71480</t>
+          <t>70863</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>100458</t>
+          <t>102508</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>135725</t>
+          <t>135493</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,47%</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>228104</t>
+          <t>229913</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>259395</t>
+          <t>260722</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>67,06%</t>
+          <t>67,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>76,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>207300</t>
+          <t>205891</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>232272</t>
+          <t>232913</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>64,4%</t>
+          <t>63,96%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>72,15%</t>
+          <t>72,35%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>444084</t>
+          <t>445789</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>485383</t>
+          <t>483579</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>67,34%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>73,32%</t>
+          <t>73,04%</t>
         </is>
       </c>
     </row>
@@ -6911,12 +6911,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>17931</t>
+          <t>17459</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>32897</t>
+          <t>32684</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6926,12 +6926,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>49279</t>
+          <t>48983</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>375252</t>
+          <t>375684</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6961,12 +6961,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>83,31%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>72478</t>
+          <t>73371</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>479551</t>
+          <t>455611</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6996,12 +6996,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>72,77%</t>
+          <t>69,14%</t>
         </is>
       </c>
     </row>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>25808</t>
+          <t>26058</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>42851</t>
+          <t>42734</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7039,12 +7039,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>14176</t>
+          <t>14302</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>88040</t>
+          <t>87316</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7074,12 +7074,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7094,12 +7094,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>34771</t>
+          <t>35032</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>118972</t>
+          <t>120119</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7137,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>139079</t>
+          <t>139385</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>160093</t>
+          <t>159757</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7152,12 +7152,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>66,84%</t>
+          <t>66,98%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7172,12 +7172,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>59859</t>
+          <t>60953</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>321829</t>
+          <t>320208</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7187,12 +7187,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>71,37%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7207,12 +7207,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>141586</t>
+          <t>161253</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>473680</t>
+          <t>472915</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>71,76%</t>
         </is>
       </c>
     </row>
@@ -7367,12 +7367,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7295</t>
+          <t>8109</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>18741</t>
+          <t>19382</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7382,12 +7382,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -7402,12 +7402,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>17116</t>
+          <t>16935</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>29993</t>
+          <t>30547</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7417,12 +7417,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -7437,12 +7437,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>27953</t>
+          <t>28015</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>45498</t>
+          <t>44225</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7452,12 +7452,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -7480,12 +7480,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>19837</t>
+          <t>20564</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>36301</t>
+          <t>36182</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7515,12 +7515,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>40129</t>
+          <t>40217</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>59079</t>
+          <t>58351</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7530,12 +7530,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7550,12 +7550,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>65772</t>
+          <t>64199</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>89812</t>
+          <t>88336</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7565,12 +7565,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>22,86%</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>102386</t>
+          <t>101222</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>120459</t>
+          <t>120060</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7608,12 +7608,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>67,46%</t>
+          <t>66,69%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>79,37%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7628,12 +7628,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>152401</t>
+          <t>152305</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>172588</t>
+          <t>171808</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7643,12 +7643,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>73,2%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7663,12 +7663,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>259101</t>
+          <t>261301</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>286917</t>
+          <t>287969</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7678,12 +7678,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>67,61%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>74,24%</t>
+          <t>74,51%</t>
         </is>
       </c>
     </row>
@@ -7823,12 +7823,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>119155</t>
+          <t>132146</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>235078</t>
+          <t>234275</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -7838,12 +7838,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -7858,12 +7858,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>259938</t>
+          <t>257205</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>959795</t>
+          <t>901392</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -7873,12 +7873,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>40,39%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -7893,12 +7893,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>437322</t>
+          <t>445211</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1196724</t>
+          <t>1309867</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -7908,12 +7908,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>30,22%</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7936,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>208458</t>
+          <t>216341</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>389769</t>
+          <t>388906</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -7951,12 +7951,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>327865</t>
+          <t>329825</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>622296</t>
+          <t>614042</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -7986,12 +7986,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -8006,12 +8006,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>625492</t>
+          <t>610338</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>973994</t>
+          <t>935476</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8021,12 +8021,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>21,59%</t>
         </is>
       </c>
     </row>
@@ -8049,12 +8049,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1490508</t>
+          <t>1490251</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1769590</t>
+          <t>1759116</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8064,12 +8064,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>70,89%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>83,68%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8084,12 +8084,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>989556</t>
+          <t>988891</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>1533122</t>
+          <t>1535915</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>44,31%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>68,7%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8119,12 +8119,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>2492131</t>
+          <t>2439016</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>3184454</t>
+          <t>3160269</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>56,28%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>73,48%</t>
+          <t>72,92%</t>
         </is>
       </c>
     </row>
